--- a/reserch/特徴量一覧.xlsx
+++ b/reserch/特徴量一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ariseanalytics-my.sharepoint.com/personal/takuya_tokumoto_ariseanalytics_com/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2B373E-87AE-41E4-BD60-6F08675C322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3384C-72C5-49AF-8E4E-CE57E0BAAFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3036" windowWidth="17280" windowHeight="8832" xr2:uid="{8AF8C525-CAB7-44EC-A9C9-56A2AC3BCA79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10971" windowHeight="11743" xr2:uid="{8AF8C525-CAB7-44EC-A9C9-56A2AC3BCA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,20 +978,20 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="45.09765625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="45.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -1055,7 +1055,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -1073,7 +1073,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -1091,7 +1091,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -1109,7 +1109,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -1127,7 +1127,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>2</v>
@@ -1165,7 +1165,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -1183,7 +1183,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13"/>
       <c r="B11" s="2">
         <v>4</v>
@@ -1201,7 +1201,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="2">
         <v>5</v>
@@ -1219,7 +1219,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>2</v>
@@ -1257,7 +1257,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13"/>
       <c r="B15" s="2">
         <v>3</v>
@@ -1275,7 +1275,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13"/>
       <c r="B16" s="2">
         <v>4</v>
@@ -1293,7 +1293,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="2">
         <v>5</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13"/>
       <c r="B19" s="2">
         <v>2</v>
@@ -1351,7 +1351,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13"/>
       <c r="B20" s="2">
         <v>3</v>
@@ -1369,7 +1369,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="2">
         <v>4</v>
@@ -1387,7 +1387,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
       <c r="B22" s="2">
         <v>5</v>
@@ -1405,7 +1405,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="2">
         <v>2</v>
@@ -1447,7 +1447,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>3</v>
@@ -1465,7 +1465,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="2">
         <v>2</v>
@@ -1499,7 +1499,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="2">
         <v>3</v>
@@ -1515,7 +1515,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="2">
         <v>4</v>
@@ -1529,7 +1529,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="2">
         <v>5</v>
@@ -1543,7 +1543,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>6</v>
@@ -1559,7 +1559,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="2">
         <v>2</v>
@@ -1593,7 +1593,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="2">
         <v>3</v>
@@ -1609,7 +1609,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="2">
         <v>4</v>
@@ -1625,7 +1625,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="2">
         <v>5</v>
@@ -1641,7 +1641,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="2">
         <v>6</v>
@@ -1657,7 +1657,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>7</v>
@@ -1673,7 +1673,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="2">
         <v>2</v>
@@ -1707,7 +1707,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="2">
         <v>3</v>
@@ -1723,7 +1723,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="2">
         <v>4</v>
@@ -1739,7 +1739,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="2">
         <v>5</v>
@@ -1755,7 +1755,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>6</v>
@@ -1771,7 +1771,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="165" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="165" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1817,7 +1817,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1827,7 +1827,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1837,7 +1837,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1847,7 +1847,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1857,7 +1857,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1867,7 +1867,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
